--- a/biology/Médecine/HapMap/HapMap.xlsx
+++ b/biology/Médecine/HapMap/HapMap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet international HapMap est un projet dont le but est de développer une carte d'haplotype qui décrira les patrons communs de variations génétiques du génome humain. Le projet est une collaboration entre chercheurs académiques, organisations de recherche sans but lucratif et compagnies privées provenant du Canada, de la Chine, du Japon, du Nigéria, du Royaume-Uni et des États-Unis.
 La carte HapMap est devenue une ressource fondamentale pour les chercheurs afin de découvrir des gènes impliqués dans le développement de maladies complexes ou modifiant la réponse pharmacologique à des médicaments. Toutes les données produites sont accessibles gratuitement à tous les chercheurs à travers le monde.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement aux maladies rares (ou mendéliennes), différents gènes, combinaisons de gènes ainsi que l'environnement jouent un rôle dans le développement des maladies communes comme l'asthme, le diabète, le cancer, la dépression ou les maladies cardio-vasculaires) ou la réponse individuelle aux agents pharmacologiques. Plusieurs études démontrent que ce sont des variants communs dans la séquence génomique, soit des polymorphismes nucléotidiques dont l'allèle mineur est présent chez au moins 5 % de la population, qui en sont responsables.
 Deux personnes non-reliées partagent plus de 99,9 % de leur séquence d'ADN. À certaines positions dans la séquence cependant, la première personne aura un G (pour guanine) tandis que la seconde aura un A (pour adénine) à la place. Ces deux possibilités constituent les deux allèles d'un SNP. Chaque personne possède deux copies de chacun des chromosomes, excepté les chromosomes sexuels. Pour chaque SNP, la combinaison des allèles qu'une personne possède est appelée un génotype. Le génotypage réfère à toute méthode permettant de détecter le génotype d'un échantillon à une position précise dans la séquence de l'ADN.
@@ -546,7 +560,9 @@
           <t>Échantillons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les haplotypes sont généralement partagés entre les populations, mais leurs fréquences peuvent être très différentes. Quatre populations ont été choisies pour la Phase I du projet HapMap: 30 trios (composés d'un adulte et de ses deux parents) d'Ibadan au Nigéria (YRI), 30 trios de résidents de l'Utah ayant des origines du Nord-ouest de l'Europe (CEU), 44 individus non-reliés de Tokyo au Japon (JPT) et 45 individus Han de Beijing en Chine (CHB). Même si les haplotypes révélés de ces populations devraient être utiles pour étudier les haplotypes de plusieurs autres populations, le consortium HapMap examine actuellement la possibilité d'inclure d'autres populations dans le projet. 
 Tous les échantillons du projet ont été prélevés après une consultation communautaire ainsi qu'un consentement éclairé. Le processus des consultations communautaires était un moyen de répondre aux interrogations culturelles spécifiques ainsi que de donner à ces communautés un mot à dire dans la présentation du consentement écrit et dans le processus de collection des échantillons.
@@ -578,7 +594,9 @@
           <t>Stratégie utilisée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la Phase I, pour chaque fenêtre de 5000 paires de bases, au moins un SNP ayant une fréquence de 5 % ou plus a été génotypé pour chacune des populations. Au total plus d'un million de SNPs polymorphiques ont été génotypés. Le processus de génotypage a été effectué dans 10 centres et utilisaient cinq technologies différentes. La qualité des résultats a été vérifiée à l'aide des relations filiales des trios et à l'aide d'échantillons dupliqués. Aussi plusieurs exercices de contrôle de la qualité ont été effectués lors du projet où chacun des centres devait génotyper un échantillon commun de SNP.
 L'équipe canadienne s'est concentré sur le chromosome 2 et le bras court du chromosome 4 (4p) et était dirigée par Thomas J. Hudson à l'Université McGill à Montréal. L'équipe chinoise avait des centres situés à Pékin, Shanghai et Hong Kong et était dirigée par Huanming Yang. Ces centres ont travaillé sur les chromosomes 3, 8p et 21. L'équipe japonaise était dirigée par Yusuke Nakamura à l'Université de Tokyo et s'est concentrée sur les chromosomes 5, 11, 14, 15, 16, 17 et 19. L'équipe britannique dirigée par David R. Bentley à l'Institut Sanger a travaillé sur les chromosomes 1, 6, 10, 13 et 20. Finalement, il y avait quatre centres aux États-Unis: une équipe de la compagnie Illumina de San Diego et dirigée par Mark Chee et Arnold Oliphant (chromosomes 8q, 9, 18q, 22 et X), une équipe de l'Institut Broad à Boston dirigée par David Altshuler (chromosomes 4q, 7q, 18p, Y et mitochondrie), une équipe du Baylor College of Medicine à Houston dirigée par Richard A. Gibbs (chromosome 12) ainsi qu'une équipe dirigée par Pui-Yan Kwok de l'Université de Californie à San Francisco (chromosome 7p).
@@ -611,7 +629,9 @@
           <t>Accès aux données du projet</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les données du projet incluant les fréquences des SNPs, les génotypes et les haplotypes sont accessibles gratuitement à tous et sont disponibles à http://www.hapmap.org
 </t>
